--- a/Data Files/Voucher/DLFundRatio.xlsx
+++ b/Data Files/Voucher/DLFundRatio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fdr-automation-develop_08_25_2020\Data Files\Voucher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FDR-Katalon-Regression\Data Files\Voucher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37E69CD-994D-4051-B3B3-04C31C345D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13CB24C-CF73-418E-A5F2-36D611BDD80C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{5E9946E0-89B8-B542-B9CC-9ADBF5941B34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5E9946E0-89B8-B542-B9CC-9ADBF5941B34}"/>
   </bookViews>
   <sheets>
     <sheet name="VoucherHeader" sheetId="4" r:id="rId1"/>
@@ -102,12 +102,11 @@
   </si>
   <si>
     <t xml:space="preserve">
-02/01/2021
+10/12/2020
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-02/03/2021
+    <t xml:space="preserve">10/12/2020
 </t>
   </si>
 </sst>
@@ -490,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E8E5A9-5135-5B4B-8DA5-1FC7E546597D}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -700,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C13ECB-99DC-CC4C-81C5-6494F0018943}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
